--- a/data/trans_dic/P16A18-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Clase-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1079,7 +1079,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A18-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Clase-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1021455935684003</v>
+        <v>0.1020879381628357</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08227642991197484</v>
+        <v>0.08027871530116817</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03797686014548235</v>
+        <v>0.03733158112803683</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01112885123319597</v>
+        <v>0.01133493218915437</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1877371320338292</v>
+        <v>0.1891355622463987</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1665542424893748</v>
+        <v>0.1639257016292761</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09808908762748639</v>
+        <v>0.09488051935578502</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04143451721743038</v>
+        <v>0.04269228790611228</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09719727383531503</v>
+        <v>0.09761383433892454</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06083306477381747</v>
+        <v>0.06007558838802109</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05823601062641742</v>
+        <v>0.05969059980369468</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02025363762889738</v>
+        <v>0.02020122502129178</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1704739624805297</v>
+        <v>0.1734560048435878</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1362310438490892</v>
+        <v>0.1357860339820071</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1213837968520049</v>
+        <v>0.1219203540326982</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0690943819134739</v>
+        <v>0.06866791804571876</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.04663357088897372</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05640011736941027</v>
+        <v>0.05640011736941026</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03564065342903571</v>
+        <v>0.03080875674931185</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05055551288714535</v>
+        <v>0.0506521645447617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0181442631722321</v>
+        <v>0.01829030788621482</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02031878789822614</v>
+        <v>0.02137531254717405</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1274254151818983</v>
+        <v>0.1280340344390967</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1298263313368181</v>
+        <v>0.1402315326119573</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09857584317838779</v>
+        <v>0.1044502483461419</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1415992965952694</v>
+        <v>0.1353536588780399</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.0643719316115629</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03859332877076002</v>
+        <v>0.03859332877076003</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06990046228815014</v>
+        <v>0.07134554826352331</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08042115592592253</v>
+        <v>0.08111537919102614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04756733701521693</v>
+        <v>0.04773272911828717</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02470437425318933</v>
+        <v>0.02541242882951491</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1198888114941614</v>
+        <v>0.1192551545822974</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1278042235781106</v>
+        <v>0.1277838995432468</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08678658849181631</v>
+        <v>0.0844646535960481</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05596233906738966</v>
+        <v>0.05585927569287295</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05667455929244122</v>
+        <v>0.05493580164265031</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0589752036587013</v>
+        <v>0.05927910888669576</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03491592786206368</v>
+        <v>0.03424835659952601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.008674583622774679</v>
+        <v>0.008827006678466198</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1174350602446777</v>
+        <v>0.1120337474391833</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1093556136852181</v>
+        <v>0.1068977650825994</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07982953594483107</v>
+        <v>0.07861133012207421</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03019917547168485</v>
+        <v>0.03167944511326409</v>
       </c>
     </row>
     <row r="19">
@@ -932,13 +932,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03913228710540781</v>
+        <v>0.03714106538935297</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07311397058274174</v>
+        <v>0.07215737318509458</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04190498539861665</v>
+        <v>0.04100566999079192</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07395600903345226</v>
+        <v>0.07393336351645657</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1221641269586662</v>
+        <v>0.1223749894465074</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08266351712804018</v>
+        <v>0.08384721183293778</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02958618933964226</v>
+        <v>0.02727893674450919</v>
       </c>
     </row>
     <row r="22">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07729204739221231</v>
+        <v>0.07831577839595294</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08467074454442866</v>
+        <v>0.08394698047561192</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05405385218760692</v>
+        <v>0.05369041307074945</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02031264701185596</v>
+        <v>0.02083701046233805</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1014272609175667</v>
+        <v>0.1024446288474785</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1096498835772978</v>
+        <v>0.1096893679371012</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07285473145325544</v>
+        <v>0.07378037032783663</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03457199558640411</v>
+        <v>0.03469581245307204</v>
       </c>
     </row>
     <row r="25">
@@ -1176,16 +1176,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26057</v>
+        <v>26042</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22868</v>
+        <v>22313</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10657</v>
+        <v>10476</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3815</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="7">
@@ -1196,16 +1196,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47891</v>
+        <v>48247</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>46293</v>
+        <v>45563</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27525</v>
+        <v>26625</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14202</v>
+        <v>14633</v>
       </c>
     </row>
     <row r="8">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32422</v>
+        <v>32561</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18146</v>
+        <v>17920</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18585</v>
+        <v>19049</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6389</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="11">
@@ -1280,16 +1280,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>56865</v>
+        <v>57860</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40637</v>
+        <v>40504</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38738</v>
+        <v>38909</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21796</v>
+        <v>21662</v>
       </c>
     </row>
     <row r="12">
@@ -1344,16 +1344,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4634</v>
+        <v>4006</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8623</v>
+        <v>8639</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1878</v>
+        <v>1893</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1923</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="15">
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16569</v>
+        <v>16648</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22143</v>
+        <v>23917</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10201</v>
+        <v>10809</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13402</v>
+        <v>12811</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1428,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38990</v>
+        <v>39796</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>51941</v>
+        <v>52389</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>30863</v>
+        <v>30970</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14863</v>
+        <v>15289</v>
       </c>
     </row>
     <row r="19">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>66873</v>
+        <v>66520</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>82543</v>
+        <v>82530</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>56309</v>
+        <v>54802</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>33668</v>
+        <v>33606</v>
       </c>
     </row>
     <row r="20">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23737</v>
+        <v>23009</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28237</v>
+        <v>28382</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>16128</v>
+        <v>15819</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3958</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="23">
@@ -1532,16 +1532,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>49185</v>
+        <v>46923</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>52358</v>
+        <v>51181</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>36873</v>
+        <v>36310</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>13778</v>
+        <v>14453</v>
       </c>
     </row>
     <row r="24">
@@ -1596,13 +1596,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>25885</v>
+        <v>24568</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>40387</v>
+        <v>39859</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>21521</v>
+        <v>21059</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>48919</v>
+        <v>48904</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>67482</v>
+        <v>67599</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>42453</v>
+        <v>43061</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11725</v>
+        <v>10811</v>
       </c>
     </row>
     <row r="28">
@@ -1680,16 +1680,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>182161</v>
+        <v>184573</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>205228</v>
+        <v>203473</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>125811</v>
+        <v>124965</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>44831</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="31">
@@ -1700,16 +1700,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>239042</v>
+        <v>241440</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>265773</v>
+        <v>265869</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>169570</v>
+        <v>171724</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>76301</v>
+        <v>76575</v>
       </c>
     </row>
     <row r="32">
